--- a/docs/CareConnect-List-1.xlsx
+++ b/docs/CareConnect-List-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="321">
   <si>
     <t>Path</t>
   </si>
@@ -335,6 +335,20 @@
 </t>
   </si>
   <si>
+    <t>To record the clinical setting of a problem list</t>
+  </si>
+  <si>
+    <t>To record the clinical setting of a problem list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>warningCode</t>
   </si>
   <si>
@@ -342,6 +356,12 @@
 </t>
   </si>
   <si>
+    <t>To capture warnings that the list may be incomplete</t>
+  </si>
+  <si>
+    <t>To capture warnings that the list may be incomplete.</t>
+  </si>
+  <si>
     <t>List.modifierExtension</t>
   </si>
   <si>
@@ -485,7 +505,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2154,7 +2174,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>41</v>
@@ -2169,10 +2189,10 @@
         <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2232,10 +2252,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -2249,7 +2269,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -2271,13 +2291,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2337,10 +2357,10 @@
         <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
@@ -2351,11 +2371,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2377,13 +2397,13 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2433,7 +2453,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2456,7 +2476,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2479,13 +2499,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2536,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2551,15 +2571,15 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2582,13 +2602,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2639,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2654,7 +2674,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2662,11 +2682,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2688,13 +2708,13 @@
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2735,7 +2755,7 @@
         <v>96</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>41</v>
@@ -2744,7 +2764,7 @@
         <v>97</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2759,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -2767,7 +2787,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2793,16 +2813,16 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2827,13 +2847,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2851,7 +2871,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2866,7 +2886,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -2874,7 +2894,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2897,19 +2917,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2937,10 +2957,10 @@
         <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -2958,7 +2978,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2973,7 +2993,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -2981,7 +3001,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3007,14 +3027,14 @@
         <v>61</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3027,7 +3047,7 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>41</v>
@@ -3063,7 +3083,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3078,7 +3098,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3086,7 +3106,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3109,16 +3129,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3132,7 +3152,7 @@
         <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>41</v>
@@ -3168,7 +3188,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3183,7 +3203,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3191,7 +3211,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3214,13 +3234,13 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3271,7 +3291,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3286,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3294,7 +3314,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3317,16 +3337,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3376,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3391,7 +3411,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3399,7 +3419,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3425,13 +3445,13 @@
         <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3457,13 +3477,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3481,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>48</v>
@@ -3496,15 +3516,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3530,16 +3550,16 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3564,32 +3584,32 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
       </c>
@@ -3603,15 +3623,15 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3634,17 +3654,17 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3657,7 +3677,7 @@
         <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>41</v>
@@ -3693,7 +3713,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3708,7 +3728,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3716,7 +3736,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3739,19 +3759,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3776,30 +3796,30 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3813,15 +3833,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3844,19 +3864,19 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3905,7 +3925,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3920,15 +3940,15 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3951,13 +3971,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4008,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4023,15 +4043,15 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4054,19 +4074,19 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4115,7 +4135,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4130,19 +4150,19 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4161,19 +4181,19 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4222,7 +4242,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4237,15 +4257,15 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4268,19 +4288,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4305,32 +4325,32 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4352,7 +4372,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4375,13 +4395,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4432,7 +4452,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4447,7 +4467,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4455,7 +4475,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4478,13 +4498,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4535,7 +4555,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4550,7 +4570,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4558,11 +4578,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4584,13 +4604,13 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4631,7 +4651,7 @@
         <v>96</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>41</v>
@@ -4640,7 +4660,7 @@
         <v>97</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4655,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -4663,7 +4683,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4686,13 +4706,13 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4743,7 +4763,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4758,7 +4778,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -4766,7 +4786,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4789,13 +4809,13 @@
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4846,7 +4866,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4861,7 +4881,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4869,7 +4889,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4892,13 +4912,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4949,7 +4969,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -4964,7 +4984,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -4972,7 +4992,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4995,16 +5015,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5054,7 +5074,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5063,13 +5083,13 @@
         <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -5077,7 +5097,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5100,13 +5120,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5157,7 +5177,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5172,7 +5192,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5180,11 +5200,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5206,13 +5226,13 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5262,7 +5282,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5277,7 +5297,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5285,11 +5305,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5311,13 +5331,13 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5367,7 +5387,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5390,7 +5410,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5413,19 +5433,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5450,32 +5470,32 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5489,7 +5509,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -5497,7 +5517,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5520,22 +5540,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5581,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5590,13 +5610,13 @@
         <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5604,7 +5624,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5627,19 +5647,19 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5688,7 +5708,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5703,7 +5723,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5711,7 +5731,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5734,13 +5754,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5791,7 +5811,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>48</v>
@@ -5806,7 +5826,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5814,7 +5834,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5837,19 +5857,19 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -5874,11 +5894,11 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -5896,7 +5916,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5905,13 +5925,13 @@
         <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
